--- a/biology/Médecine/BCX4430/BCX4430.xlsx
+++ b/biology/Médecine/BCX4430/BCX4430.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le BCX4430 (immuciline A) est un analogue de nucléosides[2], en l'occurrence d'adénosine[3], faisant l'objet de recherches comme médicament antiviral expérimental initialement dirigé contre le virus de l'hépatite C mais développé par la suite contre les filovirus les plus dangereux tels que le virus Ebola et le virus Marburg[4],[5]. Il possède par ailleurs une activité antivirale à large spectre contre un ensemble d'autres familles de virus à ARN, comme les bunyavirus, les arénavirus, les paramyxovirus, les coronavirus et les flavivirus[6].
-On a pu montrer que le BCX4430 protège contre la maladie à virus Ebola et celle à virus Marburg chez les rongeurs et les singes lorsqu'il est administré jusqu'à 48 h après l'exposition au virus, et son développement pour une utilisation chez l'homme a été accéléré afin de combler l'absence de traitements disponibles pour lutter contre l'épidémie de maladie à virus Ebola en Afrique de l'Ouest[7].
+Le BCX4430 (immuciline A) est un analogue de nucléosides, en l'occurrence d'adénosine, faisant l'objet de recherches comme médicament antiviral expérimental initialement dirigé contre le virus de l'hépatite C mais développé par la suite contre les filovirus les plus dangereux tels que le virus Ebola et le virus Marburg,. Il possède par ailleurs une activité antivirale à large spectre contre un ensemble d'autres familles de virus à ARN, comme les bunyavirus, les arénavirus, les paramyxovirus, les coronavirus et les flavivirus.
+On a pu montrer que le BCX4430 protège contre la maladie à virus Ebola et celle à virus Marburg chez les rongeurs et les singes lorsqu'il est administré jusqu'à 48 h après l'exposition au virus, et son développement pour une utilisation chez l'homme a été accéléré afin de combler l'absence de traitements disponibles pour lutter contre l'épidémie de maladie à virus Ebola en Afrique de l'Ouest.
 </t>
         </is>
       </c>
